--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/8.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/8.xlsx
@@ -479,13 +479,13 @@
         <v>-9.751530320153645</v>
       </c>
       <c r="E2" t="n">
-        <v>-21.65771387431312</v>
+        <v>-21.59398566980289</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.05659038918847602</v>
+        <v>-0.06989826588021851</v>
       </c>
       <c r="G2" t="n">
-        <v>-8.922618560077792</v>
+        <v>-8.923073237716414</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-8.99220478194664</v>
       </c>
       <c r="E3" t="n">
-        <v>-21.80350405908453</v>
+        <v>-21.74096388324296</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1910087439874356</v>
+        <v>-0.2024099080010812</v>
       </c>
       <c r="G3" t="n">
-        <v>-8.431992053962276</v>
+        <v>-8.435062350274698</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-8.14680306155887</v>
       </c>
       <c r="E4" t="n">
-        <v>-21.97333349062055</v>
+        <v>-21.92227270290249</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.3532993269346773</v>
+        <v>-0.3598065950745411</v>
       </c>
       <c r="G4" t="n">
-        <v>-8.327025076529612</v>
+        <v>-8.32962602818281</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-7.27921152956957</v>
       </c>
       <c r="E5" t="n">
-        <v>-22.08918828634584</v>
+        <v>-22.0411537938784</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.3815284525842442</v>
+        <v>-0.3865739076709004</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.789732999869393</v>
+        <v>-7.802830649265858</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-6.403498707288935</v>
       </c>
       <c r="E6" t="n">
-        <v>-22.00770320889497</v>
+        <v>-21.97336771366862</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.5037047341884487</v>
+        <v>-0.5090435296871199</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.095904701344291</v>
+        <v>-7.109701478722725</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-5.550813385882244</v>
       </c>
       <c r="E7" t="n">
-        <v>-22.27583101249718</v>
+        <v>-22.24354890015494</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.6579235667984139</v>
+        <v>-0.6574640001529238</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.50145524540297</v>
+        <v>-6.520321922902395</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-4.734012841930649</v>
       </c>
       <c r="E8" t="n">
-        <v>-22.66318702656286</v>
+        <v>-22.63044534757513</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.8287454667284222</v>
+        <v>-0.8266578607962495</v>
       </c>
       <c r="G8" t="n">
-        <v>-6.081724227864587</v>
+        <v>-6.0996913281005</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-3.966278263774154</v>
       </c>
       <c r="E9" t="n">
-        <v>-22.92881165864921</v>
+        <v>-22.90145277622196</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.9606606500115213</v>
+        <v>-0.9542267169746612</v>
       </c>
       <c r="G9" t="n">
-        <v>-5.752723399762413</v>
+        <v>-5.775193275322754</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-3.260599921638383</v>
       </c>
       <c r="E10" t="n">
-        <v>-23.37102232976167</v>
+        <v>-23.34896313077815</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.059032357180717</v>
+        <v>-1.053273107091491</v>
       </c>
       <c r="G10" t="n">
-        <v>-5.453457511424815</v>
+        <v>-5.472412191047844</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-2.619966401698218</v>
       </c>
       <c r="E11" t="n">
-        <v>-23.77636500009072</v>
+        <v>-23.76245088654748</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.323620519811287</v>
+        <v>-1.314619858169297</v>
       </c>
       <c r="G11" t="n">
-        <v>-5.060293357201249</v>
+        <v>-5.081883211525545</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-2.039094913095804</v>
       </c>
       <c r="E12" t="n">
-        <v>-24.24050286700129</v>
+        <v>-24.22839279699194</v>
       </c>
       <c r="F12" t="n">
-        <v>-1.243636367468558</v>
+        <v>-1.234963269286651</v>
       </c>
       <c r="G12" t="n">
-        <v>-4.905742072124333</v>
+        <v>-4.921377116084727</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-1.505713997985337</v>
       </c>
       <c r="E13" t="n">
-        <v>-24.82335070964742</v>
+        <v>-24.81502473095307</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.177796111991815</v>
+        <v>-1.165500259721524</v>
       </c>
       <c r="G13" t="n">
-        <v>-4.840116932949734</v>
+        <v>-4.846203746499043</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-1.015450655018922</v>
       </c>
       <c r="E14" t="n">
-        <v>-25.42302651392948</v>
+        <v>-25.416211238357</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.112390978126227</v>
+        <v>-1.098946209242211</v>
       </c>
       <c r="G14" t="n">
-        <v>-4.712215624304372</v>
+        <v>-4.716508172333524</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-0.5557517739181309</v>
       </c>
       <c r="E15" t="n">
-        <v>-26.03490527935135</v>
+        <v>-26.03037805899259</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.070951755922256</v>
+        <v>-1.055727388538682</v>
       </c>
       <c r="G15" t="n">
-        <v>-4.735741525347967</v>
+        <v>-4.733883702738539</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-0.1171895845662671</v>
       </c>
       <c r="E16" t="n">
-        <v>-26.80870795220545</v>
+        <v>-26.80244024540206</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.9776499488740508</v>
+        <v>-0.9623815804286754</v>
       </c>
       <c r="G16" t="n">
-        <v>-4.694972097084763</v>
+        <v>-4.686147439689981</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.3085319435401848</v>
       </c>
       <c r="E17" t="n">
-        <v>-27.56306460024639</v>
+        <v>-27.56148545102837</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.853586510619217</v>
+        <v>-0.8390026031352097</v>
       </c>
       <c r="G17" t="n">
-        <v>-4.728950694809822</v>
+        <v>-4.715398367774734</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.7220543171878981</v>
       </c>
       <c r="E18" t="n">
-        <v>-28.45120647669702</v>
+        <v>-28.44368473963227</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.6824272692153917</v>
+        <v>-0.6713487796549623</v>
       </c>
       <c r="G18" t="n">
-        <v>-4.989608095919393</v>
+        <v>-4.969333384442296</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.125890009242102</v>
       </c>
       <c r="E19" t="n">
-        <v>-29.09717873150533</v>
+        <v>-29.09506179153195</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.4314647687229135</v>
+        <v>-0.4192080285075577</v>
       </c>
       <c r="G19" t="n">
-        <v>-5.293762991123906</v>
+        <v>-5.259676835247774</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.518040608046882</v>
       </c>
       <c r="E20" t="n">
-        <v>-29.51931514042223</v>
+        <v>-29.51794866300293</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.2278522997365066</v>
+        <v>-0.2152386620198661</v>
       </c>
       <c r="G20" t="n">
-        <v>-5.615596535159183</v>
+        <v>-5.583925548675308</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.897402141525272</v>
       </c>
       <c r="E21" t="n">
-        <v>-30.11664177690474</v>
+        <v>-30.11301168930605</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1857087911358288</v>
+        <v>0.1966161654559161</v>
       </c>
       <c r="G21" t="n">
-        <v>-5.948014779061331</v>
+        <v>-5.911723681088221</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>2.260898404812523</v>
       </c>
       <c r="E22" t="n">
-        <v>-30.67218940520601</v>
+        <v>-30.66811686248587</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2458435755988827</v>
+        <v>0.252834855418571</v>
       </c>
       <c r="G22" t="n">
-        <v>-6.220083122198281</v>
+        <v>-6.181029735345364</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>2.606245383291155</v>
       </c>
       <c r="E23" t="n">
-        <v>-30.99607388762196</v>
+        <v>-30.99439695826661</v>
       </c>
       <c r="F23" t="n">
-        <v>0.5301148798756523</v>
+        <v>0.5375315032927623</v>
       </c>
       <c r="G23" t="n">
-        <v>-6.518561880430305</v>
+        <v>-6.47755777983749</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>2.928608611194463</v>
       </c>
       <c r="E24" t="n">
-        <v>-31.20141706503926</v>
+        <v>-31.1997108016427</v>
       </c>
       <c r="F24" t="n">
-        <v>0.7196861211402794</v>
+        <v>0.7299481465539339</v>
       </c>
       <c r="G24" t="n">
-        <v>-6.782685587408518</v>
+        <v>-6.739368986567651</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>3.227233866711146</v>
       </c>
       <c r="E25" t="n">
-        <v>-31.49736087321078</v>
+        <v>-31.49845601074897</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9620830816019226</v>
+        <v>0.9684730135769805</v>
       </c>
       <c r="G25" t="n">
-        <v>-6.841764346388318</v>
+        <v>-6.795167221939752</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>3.499954498153564</v>
       </c>
       <c r="E26" t="n">
-        <v>-31.40980609373464</v>
+        <v>-31.41083767418356</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9970688147415659</v>
+        <v>0.9990977525913356</v>
       </c>
       <c r="G26" t="n">
-        <v>-7.024681649307074</v>
+        <v>-6.978294752153785</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>3.743559759286019</v>
       </c>
       <c r="E27" t="n">
-        <v>-31.50866181258366</v>
+        <v>-31.51038763200768</v>
       </c>
       <c r="F27" t="n">
-        <v>1.240228460274448</v>
+        <v>1.244936573887287</v>
       </c>
       <c r="G27" t="n">
-        <v>-7.282483870406367</v>
+        <v>-7.236722766132043</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>3.950491533850463</v>
       </c>
       <c r="E28" t="n">
-        <v>-31.33249133914125</v>
+        <v>-31.32988060947431</v>
       </c>
       <c r="F28" t="n">
-        <v>1.40017231992557</v>
+        <v>1.403623958773612</v>
       </c>
       <c r="G28" t="n">
-        <v>-7.469703499368007</v>
+        <v>-7.419791628263673</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>4.11491412124141</v>
       </c>
       <c r="E29" t="n">
-        <v>-31.13511724291702</v>
+        <v>-31.13488501509084</v>
       </c>
       <c r="F29" t="n">
-        <v>1.420823484931419</v>
+        <v>1.424544019157141</v>
       </c>
       <c r="G29" t="n">
-        <v>-7.775212649474655</v>
+        <v>-7.722582490552316</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>4.228017094857732</v>
       </c>
       <c r="E30" t="n">
-        <v>-31.03116962341611</v>
+        <v>-31.02766664999596</v>
       </c>
       <c r="F30" t="n">
-        <v>1.551159518996505</v>
+        <v>1.552665333111515</v>
       </c>
       <c r="G30" t="n">
-        <v>-7.819687944942981</v>
+        <v>-7.763307917753718</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>4.279097883607244</v>
       </c>
       <c r="E31" t="n">
-        <v>-30.74757789109384</v>
+        <v>-30.74575918053935</v>
       </c>
       <c r="F31" t="n">
-        <v>1.452699809703704</v>
+        <v>1.459021295582626</v>
       </c>
       <c r="G31" t="n">
-        <v>-7.757172214135739</v>
+        <v>-7.705778973950729</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>4.256277553528816</v>
       </c>
       <c r="E32" t="n">
-        <v>-30.33998627760601</v>
+        <v>-30.33877624840645</v>
       </c>
       <c r="F32" t="n">
-        <v>1.434546927206849</v>
+        <v>1.435778956937312</v>
       </c>
       <c r="G32" t="n">
-        <v>-7.750342271542659</v>
+        <v>-7.700298397252918</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>4.149697303753443</v>
       </c>
       <c r="E33" t="n">
-        <v>-29.84759972901841</v>
+        <v>-29.84366652299397</v>
       </c>
       <c r="F33" t="n">
-        <v>1.372612988216771</v>
+        <v>1.377927338681107</v>
       </c>
       <c r="G33" t="n">
-        <v>-8.002507467724399</v>
+        <v>-7.951837800555692</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>3.950478765979744</v>
       </c>
       <c r="E34" t="n">
-        <v>-29.27595993461468</v>
+        <v>-29.26826952681302</v>
       </c>
       <c r="F34" t="n">
-        <v>1.375008601581559</v>
+        <v>1.37850913049827</v>
       </c>
       <c r="G34" t="n">
-        <v>-8.014109081019587</v>
+        <v>-7.961576702234587</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>3.651963943181279</v>
       </c>
       <c r="E35" t="n">
-        <v>-28.79296272371498</v>
+        <v>-28.78956730844591</v>
       </c>
       <c r="F35" t="n">
-        <v>1.391680114997739</v>
+        <v>1.394408180829478</v>
       </c>
       <c r="G35" t="n">
-        <v>-7.984775039818098</v>
+        <v>-7.937713459717175</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>3.252093997876995</v>
       </c>
       <c r="E36" t="n">
-        <v>-28.15901253679242</v>
+        <v>-28.15904675984049</v>
       </c>
       <c r="F36" t="n">
-        <v>1.318227675829209</v>
+        <v>1.321165968956225</v>
       </c>
       <c r="G36" t="n">
-        <v>-7.805265374685582</v>
+        <v>-7.762916797204364</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>2.750975306677816</v>
       </c>
       <c r="E37" t="n">
-        <v>-27.51670948163773</v>
+        <v>-27.51541145031457</v>
       </c>
       <c r="F37" t="n">
-        <v>1.407060930601054</v>
+        <v>1.410590793558966</v>
       </c>
       <c r="G37" t="n">
-        <v>-7.713029371134365</v>
+        <v>-7.673350191402482</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>2.151530143650725</v>
       </c>
       <c r="E38" t="n">
-        <v>-26.93183270114183</v>
+        <v>-26.93350963049718</v>
       </c>
       <c r="F38" t="n">
-        <v>1.239739559587756</v>
+        <v>1.245474364642648</v>
       </c>
       <c r="G38" t="n">
-        <v>-7.637714220349539</v>
+        <v>-7.603584063411606</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.460460057487726</v>
       </c>
       <c r="E39" t="n">
-        <v>-26.16113943665509</v>
+        <v>-26.165881773316</v>
       </c>
       <c r="F39" t="n">
-        <v>1.324901170202548</v>
+        <v>1.329418612547577</v>
       </c>
       <c r="G39" t="n">
-        <v>-7.547560933723628</v>
+        <v>-7.516021950425159</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.6877519229521066</v>
       </c>
       <c r="E40" t="n">
-        <v>-25.53375763045823</v>
+        <v>-25.53275538405051</v>
       </c>
       <c r="F40" t="n">
-        <v>1.320109943472971</v>
+        <v>1.325140731539027</v>
       </c>
       <c r="G40" t="n">
-        <v>-7.203677968718564</v>
+        <v>-7.179609387912742</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-0.1552335615512304</v>
       </c>
       <c r="E41" t="n">
-        <v>-24.95837041229101</v>
+        <v>-24.96055579836052</v>
       </c>
       <c r="F41" t="n">
-        <v>1.378533575532605</v>
+        <v>1.38033273005963</v>
       </c>
       <c r="G41" t="n">
-        <v>-7.188844721884345</v>
+        <v>-7.168394006160039</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-1.05441446622906</v>
       </c>
       <c r="E42" t="n">
-        <v>-24.28189808814346</v>
+        <v>-24.28200075728766</v>
       </c>
       <c r="F42" t="n">
-        <v>1.373180113013333</v>
+        <v>1.379061588274232</v>
       </c>
       <c r="G42" t="n">
-        <v>-6.926231718028008</v>
+        <v>-6.904685864765514</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-1.991154726865432</v>
       </c>
       <c r="E43" t="n">
-        <v>-23.60047808904659</v>
+        <v>-23.59974473801655</v>
       </c>
       <c r="F43" t="n">
-        <v>1.326338538221421</v>
+        <v>1.332083121290046</v>
       </c>
       <c r="G43" t="n">
-        <v>-6.856964268737557</v>
+        <v>-6.842087020841535</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-2.947123988854953</v>
       </c>
       <c r="E44" t="n">
-        <v>-22.91134323711372</v>
+        <v>-22.91240904061071</v>
       </c>
       <c r="F44" t="n">
-        <v>1.438531467803385</v>
+        <v>1.443327583539828</v>
       </c>
       <c r="G44" t="n">
-        <v>-6.776515660742471</v>
+        <v>-6.761281515345164</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-3.904382836698332</v>
       </c>
       <c r="E45" t="n">
-        <v>-22.08098942183002</v>
+        <v>-22.08048096511586</v>
       </c>
       <c r="F45" t="n">
-        <v>1.48123205377902</v>
+        <v>1.488145109488838</v>
       </c>
       <c r="G45" t="n">
-        <v>-6.615070875983206</v>
+        <v>-6.606050658313748</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-4.846059175579415</v>
       </c>
       <c r="E46" t="n">
-        <v>-21.55794391117999</v>
+        <v>-21.55882393241604</v>
       </c>
       <c r="F46" t="n">
-        <v>1.469366434113017</v>
+        <v>1.478494209933548</v>
       </c>
       <c r="G46" t="n">
-        <v>-6.504075753083636</v>
+        <v>-6.49227857951377</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-5.750443274249091</v>
       </c>
       <c r="E47" t="n">
-        <v>-20.86503474594587</v>
+        <v>-20.8702317602454</v>
       </c>
       <c r="F47" t="n">
-        <v>1.555246728737246</v>
+        <v>1.560228626734632</v>
       </c>
       <c r="G47" t="n">
-        <v>-6.478388911004865</v>
+        <v>-6.470199824502783</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-6.601559072773343</v>
       </c>
       <c r="E48" t="n">
-        <v>-20.21682577049595</v>
+        <v>-20.22684823457313</v>
       </c>
       <c r="F48" t="n">
-        <v>1.600963831949767</v>
+        <v>1.607226649746285</v>
       </c>
       <c r="G48" t="n">
-        <v>-6.448047734388791</v>
+        <v>-6.442552490670378</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-7.38666425248247</v>
       </c>
       <c r="E49" t="n">
-        <v>-19.44991170831734</v>
+        <v>-19.45857013947865</v>
       </c>
       <c r="F49" t="n">
-        <v>1.745996220656799</v>
+        <v>1.751075898791524</v>
       </c>
       <c r="G49" t="n">
-        <v>-6.202296915216444</v>
+        <v>-6.201475562062802</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-8.095965097661981</v>
       </c>
       <c r="E50" t="n">
-        <v>-19.04392857808872</v>
+        <v>-19.05785735865256</v>
       </c>
       <c r="F50" t="n">
-        <v>1.734472831471481</v>
+        <v>1.742133905231936</v>
       </c>
       <c r="G50" t="n">
-        <v>-6.219931562985406</v>
+        <v>-6.21469543663094</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-8.716570286360595</v>
       </c>
       <c r="E51" t="n">
-        <v>-18.46810134930348</v>
+        <v>-18.48051453773857</v>
       </c>
       <c r="F51" t="n">
-        <v>1.716373728050161</v>
+        <v>1.719116460902501</v>
       </c>
       <c r="G51" t="n">
-        <v>-6.282271289545439</v>
+        <v>-6.274199539208162</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-9.24423599450977</v>
       </c>
       <c r="E52" t="n">
-        <v>-18.00808980418859</v>
+        <v>-18.01595132723059</v>
       </c>
       <c r="F52" t="n">
-        <v>1.716706180517112</v>
+        <v>1.722289426359129</v>
       </c>
       <c r="G52" t="n">
-        <v>-6.282911749445004</v>
+        <v>-6.278540977305982</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-9.680197635093672</v>
       </c>
       <c r="E53" t="n">
-        <v>-17.60315781043635</v>
+        <v>-17.61325360961654</v>
       </c>
       <c r="F53" t="n">
-        <v>1.803608277576525</v>
+        <v>1.808741734786786</v>
       </c>
       <c r="G53" t="n">
-        <v>-6.189248155888648</v>
+        <v>-6.186094746459488</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-10.02632391584109</v>
       </c>
       <c r="E54" t="n">
-        <v>-16.97290615720862</v>
+        <v>-16.98443932440767</v>
       </c>
       <c r="F54" t="n">
-        <v>1.856140656361526</v>
+        <v>1.862770149673063</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.194503838270581</v>
+        <v>-6.189169931778777</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-10.27926272093164</v>
       </c>
       <c r="E55" t="n">
-        <v>-16.76927413219474</v>
+        <v>-16.77795211938351</v>
       </c>
       <c r="F55" t="n">
-        <v>1.848621363800211</v>
+        <v>1.852713462547819</v>
       </c>
       <c r="G55" t="n">
-        <v>-6.420498180693725</v>
+        <v>-6.418664803118632</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-10.44542039932262</v>
       </c>
       <c r="E56" t="n">
-        <v>-16.22114801631744</v>
+        <v>-16.22590013099208</v>
       </c>
       <c r="F56" t="n">
-        <v>1.885870707119236</v>
+        <v>1.887141848904634</v>
       </c>
       <c r="G56" t="n">
-        <v>-6.322092250476461</v>
+        <v>-6.320341986018105</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-10.53434774409751</v>
       </c>
       <c r="E57" t="n">
-        <v>-16.12683907385465</v>
+        <v>-16.13029560170956</v>
       </c>
       <c r="F57" t="n">
-        <v>1.925632999967855</v>
+        <v>1.927593491721488</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.502853501366907</v>
+        <v>-6.500350329851047</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-10.55163600361263</v>
       </c>
       <c r="E58" t="n">
-        <v>-15.91418683117132</v>
+        <v>-15.91599087470521</v>
       </c>
       <c r="F58" t="n">
-        <v>1.814647655082019</v>
+        <v>1.815371228098322</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.660523972824914</v>
+        <v>-6.656319426919367</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-10.49519107317065</v>
       </c>
       <c r="E59" t="n">
-        <v>-15.6618114076943</v>
+        <v>-15.65942557234324</v>
       </c>
       <c r="F59" t="n">
-        <v>1.869966767781162</v>
+        <v>1.870216107131374</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.42546541167051</v>
+        <v>-6.4252600733821</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-10.3735918992395</v>
       </c>
       <c r="E60" t="n">
-        <v>-15.44031495158872</v>
+        <v>-15.43623263085484</v>
       </c>
       <c r="F60" t="n">
-        <v>1.933880754552341</v>
+        <v>1.935024782159199</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.441467131145923</v>
+        <v>-6.447915731203384</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-10.19464049548596</v>
       </c>
       <c r="E61" t="n">
-        <v>-15.30043068711255</v>
+        <v>-15.29558079230057</v>
       </c>
       <c r="F61" t="n">
-        <v>1.88109414741026</v>
+        <v>1.881724829296092</v>
       </c>
       <c r="G61" t="n">
-        <v>-6.283317537014958</v>
+        <v>-6.287492748879304</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-9.960638333485051</v>
       </c>
       <c r="E62" t="n">
-        <v>-15.27542341698828</v>
+        <v>-15.26693610106731</v>
       </c>
       <c r="F62" t="n">
-        <v>1.87603891430987</v>
+        <v>1.87702160469012</v>
       </c>
       <c r="G62" t="n">
-        <v>-6.365051953816042</v>
+        <v>-6.369188053625453</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-9.666726592613365</v>
       </c>
       <c r="E63" t="n">
-        <v>-15.22961831165215</v>
+        <v>-15.21667222146856</v>
       </c>
       <c r="F63" t="n">
-        <v>1.862501254295382</v>
+        <v>1.863601280840438</v>
       </c>
       <c r="G63" t="n">
-        <v>-6.396634938176313</v>
+        <v>-6.40386577933248</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-9.319784259664456</v>
       </c>
       <c r="E64" t="n">
-        <v>-15.28027820080712</v>
+        <v>-15.26558184616518</v>
       </c>
       <c r="F64" t="n">
-        <v>1.708859324495713</v>
+        <v>1.709186887955797</v>
       </c>
       <c r="G64" t="n">
-        <v>-6.387864059857067</v>
+        <v>-6.396092258414085</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-8.925332132674484</v>
       </c>
       <c r="E65" t="n">
-        <v>-15.33713246166248</v>
+        <v>-15.31711686754933</v>
       </c>
       <c r="F65" t="n">
-        <v>1.69979999477132</v>
+        <v>1.701388922003067</v>
       </c>
       <c r="G65" t="n">
-        <v>-6.490616317179019</v>
+        <v>-6.498644066454493</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-8.484360237761097</v>
       </c>
       <c r="E66" t="n">
-        <v>-15.34733092998686</v>
+        <v>-15.32569707460076</v>
       </c>
       <c r="F66" t="n">
-        <v>1.794656506003204</v>
+        <v>1.795013403504488</v>
       </c>
       <c r="G66" t="n">
-        <v>-6.444204974991395</v>
+        <v>-6.448898421583634</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-7.993876515716245</v>
       </c>
       <c r="E67" t="n">
-        <v>-15.23338773594654</v>
+        <v>-15.20868847325489</v>
       </c>
       <c r="F67" t="n">
-        <v>1.618202470162509</v>
+        <v>1.617723347489552</v>
       </c>
       <c r="G67" t="n">
-        <v>-6.19531541341049</v>
+        <v>-6.205200985295392</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-7.462046041694675</v>
       </c>
       <c r="E68" t="n">
-        <v>-15.36880344814635</v>
+        <v>-15.34155212387017</v>
       </c>
       <c r="F68" t="n">
-        <v>1.582131377498411</v>
+        <v>1.582214490615149</v>
       </c>
       <c r="G68" t="n">
-        <v>-6.316733898950322</v>
+        <v>-6.326624359842091</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-6.894701991819233</v>
       </c>
       <c r="E69" t="n">
-        <v>-15.28324093896847</v>
+        <v>-15.252987764476</v>
       </c>
       <c r="F69" t="n">
-        <v>1.540555263102166</v>
+        <v>1.544021568970809</v>
       </c>
       <c r="G69" t="n">
-        <v>-6.193090915286043</v>
+        <v>-6.196126988550398</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-6.294203832089622</v>
       </c>
       <c r="E70" t="n">
-        <v>-15.33685867727793</v>
+        <v>-15.30463523301809</v>
       </c>
       <c r="F70" t="n">
-        <v>1.47644571605631</v>
+        <v>1.47604970650009</v>
       </c>
       <c r="G70" t="n">
-        <v>-6.129553382043617</v>
+        <v>-6.134696617267611</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-5.660571366297431</v>
       </c>
       <c r="E71" t="n">
-        <v>-15.36521002809917</v>
+        <v>-15.33184744523934</v>
       </c>
       <c r="F71" t="n">
-        <v>1.368300884160152</v>
+        <v>1.368041766796205</v>
       </c>
       <c r="G71" t="n">
-        <v>-6.136779334192917</v>
+        <v>-6.140186971979157</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-5.003352119116053</v>
       </c>
       <c r="E72" t="n">
-        <v>-15.48375377760126</v>
+        <v>-15.45004407525388</v>
       </c>
       <c r="F72" t="n">
-        <v>1.290467894838866</v>
+        <v>1.290194110454319</v>
       </c>
       <c r="G72" t="n">
-        <v>-6.001084948601692</v>
+        <v>-6.003749457344161</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-4.328007280512864</v>
       </c>
       <c r="E73" t="n">
-        <v>-15.59537958238666</v>
+        <v>-15.56096586305044</v>
       </c>
       <c r="F73" t="n">
-        <v>1.224505414190449</v>
+        <v>1.22149378596043</v>
       </c>
       <c r="G73" t="n">
-        <v>-6.153152618190215</v>
+        <v>-6.153641518876906</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-3.63792828158469</v>
       </c>
       <c r="E74" t="n">
-        <v>-15.70555335213259</v>
+        <v>-15.67365258232597</v>
       </c>
       <c r="F74" t="n">
-        <v>1.084934046153761</v>
+        <v>1.085066049339168</v>
       </c>
       <c r="G74" t="n">
-        <v>-6.067448327813196</v>
+        <v>-6.066421636371143</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-2.93335762585109</v>
       </c>
       <c r="E75" t="n">
-        <v>-15.96719344362241</v>
+        <v>-15.93130324421239</v>
       </c>
       <c r="F75" t="n">
-        <v>1.030802962123279</v>
+        <v>1.030123390168778</v>
       </c>
       <c r="G75" t="n">
-        <v>-6.105978590931352</v>
+        <v>-6.103226080065279</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-2.220887976648841</v>
       </c>
       <c r="E76" t="n">
-        <v>-15.99180470419046</v>
+        <v>-15.95542560409374</v>
       </c>
       <c r="F76" t="n">
-        <v>0.8080255862185657</v>
+        <v>0.8112621087644634</v>
       </c>
       <c r="G76" t="n">
-        <v>-6.237077310067677</v>
+        <v>-6.228883334558727</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-1.501135836733897</v>
       </c>
       <c r="E77" t="n">
-        <v>-16.04073388491454</v>
+        <v>-16.00858866476458</v>
       </c>
       <c r="F77" t="n">
-        <v>0.6655648151235309</v>
+        <v>0.6668310679020619</v>
       </c>
       <c r="G77" t="n">
-        <v>-6.177084306803764</v>
+        <v>-6.16518935309656</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.7753410798429246</v>
       </c>
       <c r="E78" t="n">
-        <v>-16.1725072869985</v>
+        <v>-16.14531951981159</v>
       </c>
       <c r="F78" t="n">
-        <v>0.6851061755705901</v>
+        <v>0.6845830518358301</v>
       </c>
       <c r="G78" t="n">
-        <v>-6.14924630170355</v>
+        <v>-6.138363372417797</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.04156555204314984</v>
       </c>
       <c r="E79" t="n">
-        <v>-16.30235442037689</v>
+        <v>-16.27328927455309</v>
       </c>
       <c r="F79" t="n">
-        <v>0.3982534756680893</v>
+        <v>0.3988646015264536</v>
       </c>
       <c r="G79" t="n">
-        <v>-6.172566864458734</v>
+        <v>-6.158735864032232</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>0.6961396509266174</v>
       </c>
       <c r="E80" t="n">
-        <v>-16.76968480877156</v>
+        <v>-16.74592912440522</v>
       </c>
       <c r="F80" t="n">
-        <v>0.3777000907995788</v>
+        <v>0.3801837062879716</v>
       </c>
       <c r="G80" t="n">
-        <v>-6.143286602332781</v>
+        <v>-6.125969740010167</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>1.437555247663999</v>
       </c>
       <c r="E81" t="n">
-        <v>-17.22524735763756</v>
+        <v>-17.20631712304887</v>
       </c>
       <c r="F81" t="n">
-        <v>0.2139623618197303</v>
+        <v>0.2133170129132975</v>
       </c>
       <c r="G81" t="n">
-        <v>-6.251881222860695</v>
+        <v>-6.231498953232527</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>2.176923449223434</v>
       </c>
       <c r="E82" t="n">
-        <v>-17.6558319704205</v>
+        <v>-17.63848577405668</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.0914196741083781</v>
+        <v>-0.09212369109721386</v>
       </c>
       <c r="G82" t="n">
-        <v>-6.303386910203645</v>
+        <v>-6.281792166872481</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>2.910760324066063</v>
       </c>
       <c r="E83" t="n">
-        <v>-18.12839848516963</v>
+        <v>-18.11469948792853</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.103495521069658</v>
+        <v>-0.1035395221314603</v>
       </c>
       <c r="G83" t="n">
-        <v>-6.360123834894193</v>
+        <v>-6.331968044347629</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>3.632361889460708</v>
       </c>
       <c r="E84" t="n">
-        <v>-18.90341852073358</v>
+        <v>-18.89162134716372</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.1996036180594721</v>
+        <v>-0.2003858591581785</v>
       </c>
       <c r="G84" t="n">
-        <v>-6.393696645049297</v>
+        <v>-6.363277244323353</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>4.33723399244231</v>
       </c>
       <c r="E85" t="n">
-        <v>-19.59268048684499</v>
+        <v>-19.57975395268886</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.3576945441080339</v>
+        <v>-0.3577581011973037</v>
       </c>
       <c r="G85" t="n">
-        <v>-6.49779337925965</v>
+        <v>-6.463663222321717</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>5.01512997669412</v>
       </c>
       <c r="E86" t="n">
-        <v>-20.23908052975415</v>
+        <v>-20.23136567691816</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.520361580584028</v>
+        <v>-0.5185575370501364</v>
       </c>
       <c r="G86" t="n">
-        <v>-6.756910743206142</v>
+        <v>-6.72075164841844</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>5.66139411931109</v>
       </c>
       <c r="E87" t="n">
-        <v>-20.98904929413203</v>
+        <v>-20.98301625965826</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.6213342394064224</v>
+        <v>-0.6196035309755346</v>
       </c>
       <c r="G87" t="n">
-        <v>-7.092237946194105</v>
+        <v>-7.052964554032177</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>6.270968309588044</v>
       </c>
       <c r="E88" t="n">
-        <v>-21.83692531002676</v>
+        <v>-21.83113183688947</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.737413929447584</v>
+        <v>-0.734886312897389</v>
       </c>
       <c r="G88" t="n">
-        <v>-7.392246963575474</v>
+        <v>-7.345224495529486</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>6.838755410347113</v>
       </c>
       <c r="E89" t="n">
-        <v>-22.82053482356764</v>
+        <v>-22.81906812150757</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.9489417005515262</v>
+        <v>-0.9461647446511184</v>
       </c>
       <c r="G89" t="n">
-        <v>-7.468593694809218</v>
+        <v>-7.422055238443054</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>7.352420524261309</v>
       </c>
       <c r="E90" t="n">
-        <v>-23.86915835042477</v>
+        <v>-23.87627185541612</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.194961415101553</v>
+        <v>-1.194917414039751</v>
       </c>
       <c r="G90" t="n">
-        <v>-7.832448252865629</v>
+        <v>-7.787161382257396</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>7.806392981849538</v>
       </c>
       <c r="E91" t="n">
-        <v>-25.0770461649785</v>
+        <v>-25.08652106028659</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.119250254760508</v>
+        <v>-1.121958764564779</v>
       </c>
       <c r="G91" t="n">
-        <v>-8.20503457718635</v>
+        <v>-8.157884994961822</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>8.193548834381005</v>
       </c>
       <c r="E92" t="n">
-        <v>-26.34122111559104</v>
+        <v>-26.35448988022785</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.32813307314945</v>
+        <v>-1.33450344909704</v>
       </c>
       <c r="G92" t="n">
-        <v>-8.492478846919747</v>
+        <v>-8.445163038461745</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>8.504951667410976</v>
       </c>
       <c r="E93" t="n">
-        <v>-27.59127661437192</v>
+        <v>-27.60959083409539</v>
       </c>
       <c r="F93" t="n">
-        <v>-1.622050387974642</v>
+        <v>-1.623023300341158</v>
       </c>
       <c r="G93" t="n">
-        <v>-8.79552393756547</v>
+        <v>-8.751742881072248</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>8.725036378663299</v>
       </c>
       <c r="E94" t="n">
-        <v>-29.08497577036551</v>
+        <v>-29.10912013077777</v>
       </c>
       <c r="F94" t="n">
-        <v>-1.86282419815647</v>
+        <v>-1.865562042001942</v>
       </c>
       <c r="G94" t="n">
-        <v>-9.130675136306225</v>
+        <v>-9.08741720354776</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>8.852261561661361</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.72183971444297</v>
+        <v>-30.74461515293249</v>
       </c>
       <c r="F95" t="n">
-        <v>-2.121946451109829</v>
+        <v>-2.125769654479757</v>
       </c>
       <c r="G95" t="n">
-        <v>-9.397668690315317</v>
+        <v>-9.358825530757677</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>8.878725110535861</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.55475527838715</v>
+        <v>-32.58122191706119</v>
       </c>
       <c r="F96" t="n">
-        <v>-2.143032737726833</v>
+        <v>-2.146259482258997</v>
       </c>
       <c r="G96" t="n">
-        <v>-9.747545577739217</v>
+        <v>-9.710188676269121</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>8.809738795661415</v>
       </c>
       <c r="E97" t="n">
-        <v>-34.27461255853392</v>
+        <v>-34.3011989778762</v>
       </c>
       <c r="F97" t="n">
-        <v>-2.508437110960057</v>
+        <v>-2.506349505027884</v>
       </c>
       <c r="G97" t="n">
-        <v>-10.10961564828921</v>
+        <v>-10.07289431771181</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>8.622394770636939</v>
       </c>
       <c r="E98" t="n">
-        <v>-36.25931222966835</v>
+        <v>-36.2884018205265</v>
       </c>
       <c r="F98" t="n">
-        <v>-2.901835937513235</v>
+        <v>-2.901689267307227</v>
       </c>
       <c r="G98" t="n">
-        <v>-10.52675060318126</v>
+        <v>-10.4981205789686</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>8.347124870171037</v>
       </c>
       <c r="E99" t="n">
-        <v>-38.28768295464149</v>
+        <v>-38.31906304521678</v>
       </c>
       <c r="F99" t="n">
-        <v>-3.180421326803782</v>
+        <v>-3.17820660669307</v>
       </c>
       <c r="G99" t="n">
-        <v>-10.85594210255124</v>
+        <v>-10.83109616965358</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>7.953726997072431</v>
       </c>
       <c r="E100" t="n">
-        <v>-40.48623267514164</v>
+        <v>-40.52005238014353</v>
       </c>
       <c r="F100" t="n">
-        <v>-3.543865208283373</v>
+        <v>-3.540154452071384</v>
       </c>
       <c r="G100" t="n">
-        <v>-11.04762539478237</v>
+        <v>-11.02051096269846</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>7.505352230896521</v>
       </c>
       <c r="E101" t="n">
-        <v>-42.39700322893801</v>
+        <v>-42.43136805820556</v>
       </c>
       <c r="F101" t="n">
-        <v>-3.970494614510971</v>
+        <v>-3.968260338372791</v>
       </c>
       <c r="G101" t="n">
-        <v>-11.29050636692384</v>
+        <v>-11.26872584133173</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>6.900484286313223</v>
       </c>
       <c r="E102" t="n">
-        <v>-44.66645332702216</v>
+        <v>-44.7000432487013</v>
       </c>
       <c r="F102" t="n">
-        <v>-4.217917474031803</v>
+        <v>-4.211708435310821</v>
       </c>
       <c r="G102" t="n">
-        <v>-11.43591520915963</v>
+        <v>-11.41289776483019</v>
       </c>
     </row>
   </sheetData>
